--- a/gd/体验反馈/V0.8集体测试说明.xlsx
+++ b/gd/体验反馈/V0.8集体测试说明.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/gd/体验反馈/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\gd\体验反馈\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="25460" windowHeight="20000" tabRatio="500"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="25455" windowHeight="19995" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="体验流程" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表1" sheetId="5" r:id="rId2"/>
+    <sheet name="对局外" sheetId="6" r:id="rId2"/>
+    <sheet name="对局" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="220">
   <si>
     <t>体验过程中遇到的问题、意见和建议请大家及时记录下来并汇总到一起发到手游组中，谢谢！</t>
     <rPh sb="38" eb="39">
@@ -793,13 +794,548 @@
       <t>tong</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先体验副本、任务及成长相关内容，之后再进行抽蛋、公会、大冒险的体验</t>
+    <rPh sb="0" eb="1">
+      <t>qing</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti'yan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cheng'g</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>nei'ron</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhi'hou</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>chou'dan</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>da'mao'xian</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>de</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ti'yan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险立即完成探险 点击也卡主很长时间1-2秒  额外奖励百分比被压扁了bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋奖励图标有点小了，抽蛋动画时间稍微过长，抽到宠物时候的白屏时间太长 ，直接变黑色有点突然，强烈建议获得宠物加特效背景或者技能特效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋跳过按钮没有贴近右边bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋圆盘三个头像区分不够强</t>
+  </si>
+  <si>
+    <t>公会成员列表界面排版过于靠下 可以向上增加高度 上部和其他公会界面对齐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会快速切换下方导航按钮会卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大表哥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提问人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物和场景不搭，比如曼陀罗，在大街上跑，比如小丑和蛙鬼能待在一起打怪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方是1级没装备，敌方也是1级没装备，己方打一下好几百，敌方打一下好几十，感觉很奇怪</t>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图鉴：碎片满足合成时，效果不明显</t>
+  </si>
+  <si>
+    <t>0.6修改涉及的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>师叔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉1-3好像比1-4难啊</t>
+  </si>
+  <si>
+    <t>郑帅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图鉴：碎片合成宠物时，只有宠物动作，最好加一个特效，或合成完成的提示吧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">图鉴可不可以 可合成状态的用加亮操作 就是现在已收集的状态  然后已收集的在角上打个对号 </t>
+  </si>
+  <si>
+    <t>郑帅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋，在iphone5s上显得太小了，图标很小，空白很大</t>
+  </si>
+  <si>
+    <t>小珍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图鉴可合成提示+1</t>
+  </si>
+  <si>
+    <t>第一次进对局卡这里了</t>
+  </si>
+  <si>
+    <t>大招动画看过几遍之后就不太想看了  可不可以添加一个跳过按钮 或者点击屏幕直接跳过</t>
+  </si>
+  <si>
+    <t>ui 返回按钮 太小还是什么原因，点了经常没反应</t>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物tips技能分不出哪个是大招</t>
+  </si>
+  <si>
+    <t>小珍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是不明白“克制”是什么意思</t>
+  </si>
+  <si>
+    <t>有的tips是点击就出来，有的是长按。但是长按缺少长按反馈，tips补充，有的还是长按后抬手才会出来，同一个界面就有3种tip触发方式，太乱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss死后消失不爽，缺少站在敌人尸体上的快感</t>
+  </si>
+  <si>
+    <t>三星，右一比左一高</t>
+  </si>
+  <si>
+    <t>1-8  boss阿穆特没有出手机会就被干死了 ，我方队伍：花魄6级 冰雪女王6级 曼陀罗4级</t>
+  </si>
+  <si>
+    <t>师叔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工会的返回都是退出到主界面 感觉比较奇怪</t>
+  </si>
+  <si>
+    <t>珍珍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工会基地点击的操作不够明显</t>
+  </si>
+  <si>
+    <t>郑帅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelup界面是个黑漆漆的，挡在我们各种比较灵动的毛玻璃界面上头，不好看</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宠物：宠物进阶效果不明显 </t>
+  </si>
+  <si>
+    <t>8级的时候，就剩一个全三星的任务了，但是我刚才打的都是1星2星，要回头全都刷一遍，累觉不爱</t>
+  </si>
+  <si>
+    <t>任务功能and内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攒齐了召唤碎片以后的图除了数字颜色不一样，其他都和没攒齐的一样，感觉不好找到哪一个是攒齐碎片可以召唤的。</t>
+  </si>
+  <si>
+    <t>云翔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险队伍太空了  不太好看</t>
+  </si>
+  <si>
+    <t>怪脚下缺少简单的黑影，看起来假假的</t>
+  </si>
+  <si>
+    <t>盘神 的弱点 玫瑰，一直都点不上，有点上的吗？</t>
+  </si>
+  <si>
+    <t>boss有时候没死，还可以攻击 或 被攻击，血条就消失了
+脚下黑影 我昨天晚上还想加一下的（珍珍说的）
+好啊。 我也想了一段时间， 老忘说。（MT说的）
+黑影+1（大表哥说的）
+看了3个方法 还没想好选那个（珍珍又说）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新商店任务的时候，没钻石了怎么办（钻石都花没了），总不能充钱吧</t>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>过关的云，感觉不够美观，而且透明处还会看到切场景，不如用一个美观的云彻底挡住
+那个云 还不如删了 用fadein fadeout呢（珍珍说的）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-7无意中就把boss打死了</t>
+  </si>
+  <si>
+    <t>大部分怪物都有头，把头作为 需要 用照妖镜鉴定的弱点，没什么特点（头没特点）</t>
+  </si>
+  <si>
+    <t>领取奖励的黑框不够炫，领完奖励没啥实感</t>
+  </si>
+  <si>
+    <t>每完成一个操作就得出去看看任务，好麻烦
+每完成一个操作就得出去看看任务，好麻烦  +1（木木说的）我感觉玩家玩的时候应该不会一直去这么做的，不知道会不会卡成长什么的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有抽蛋了，第一个任务还没抽蛋就完成了</t>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1副本大街场景，感觉我是趴地上战斗的</t>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼人上场后只要放了大招，嘲讽就一直有效了</t>
+  </si>
+  <si>
+    <t>游戏玩了好半天，都不知道哪个宠物好哪个不好，不直观，不像其他游戏，一上来随便玩玩就知道要追求什么样的宠物</t>
+  </si>
+  <si>
+    <t>通关1-8任务，本没开，跳转不了，还提示未开启，体验不好</t>
+  </si>
+  <si>
+    <t>集火的玩法基本不太需要了，也就剩照妖镜，随便照照挂着大就差不多了</t>
+  </si>
+  <si>
+    <t>阵容选择基本上也不太需要看敌方技能，不看也不太影响战斗过程，基本都能打过（稍微升升级，穿穿装备，强化强化装备就碾压过去了）</t>
+  </si>
+  <si>
+    <t>法术型戒指加力量，什么玩意</t>
+  </si>
+  <si>
+    <t>狼人这个怪，骂了别人孙子之后就知道防御防御防御，太2了</t>
+  </si>
+  <si>
+    <t>水鬼boss挂机过，弱点都没照</t>
+  </si>
+  <si>
+    <t>升到13级就不想玩了，感觉被游戏玩了，光点任务了，还没有什么乐趣，不知道这游戏要玩啥玩意
+玩到14级，任务都不能立刻做完了，不知道该干啥了，不想玩了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打造装备太麻烦了，点一下等一会，烦死了</t>
+  </si>
+  <si>
+    <t>十连抽不点跳过都对不起我的pad，时间太长了</t>
+  </si>
+  <si>
+    <t>兔桑、小珍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、小珍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜥蜴人boss战崩溃</t>
+  </si>
+  <si>
+    <t>任务跳转，比如任务是打2-5，但是我只打到2-1，这时候点跳转会提示关卡未开启，这时候就需要我关任务-点章节-选章节-选副本，感觉好麻烦，建议没开启直接跳到第二章选副本的界面</t>
+  </si>
+  <si>
+    <t>不知道敌人身上都一直闪着光是啥意思</t>
+  </si>
+  <si>
+    <t>2-8  树灵放大招的同时，点自己怪（花魄）也放大招，大树效果没播放完 就进入花魄的幕布了</t>
+  </si>
+  <si>
+    <t>兔桑、小珍、木木</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、木木</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、小珍 、木木</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、小珍、木木</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打造，有个close按钮一瞬间闪过，像bug</t>
+  </si>
+  <si>
+    <t>2d+1奶 刷本很快，基本3只怪就够了，完全不需要换怪和升级其他怪
+比之前的TDS阵容省心太多了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>木木</t>
+  </si>
+  <si>
+    <t>木木</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋后结果icon，感觉有点小，不够突出</t>
+  </si>
+  <si>
+    <t>做打1-1的任务去打副本，胜利后的结算界面，有【下一关】按钮，估计正常玩的玩家会有很大部分直接打下一关，然后就一直下一关下一关。
+ts的问题3，如果投放怪要靠任务指引合成又不是强指引的话，前面副本就会打不过（不合成曼陀罗）（木木说的）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备详情界面，太拥挤。打造界面向上箭头颜色和背景太相近。</t>
+  </si>
+  <si>
+    <t>宠物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示服务器断开，但数据还是回来了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">公会基地-派兵按钮和锁定都没显示出来 </t>
+  </si>
+  <si>
+    <t>进入公会后，网络交互感觉有些卡</t>
+  </si>
+  <si>
+    <t>大冒险 已经派遣5只怪物时，再派遣第六只，没提示</t>
+  </si>
+  <si>
+    <t>第一二章还是有一上来3个潘神，各种先手一起打一个怪的情况</t>
+  </si>
+  <si>
+    <t>走音草有点出经镜头了</t>
+  </si>
+  <si>
+    <t>大招镜头里特效比例好像不对，如：嘲讽</t>
+  </si>
+  <si>
+    <t>1-8阿穆特关，己方小怪血条重叠了</t>
+  </si>
+  <si>
+    <t>日常修炼的跳转不能跳到日常任务分页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打完挑战本返回后，副本界面显示是普通难度的副本列表</t>
+  </si>
+  <si>
+    <t>第二章场景，对局1透视感觉不对，对局2略挤，对局3不错。另外怪物感觉好亮</t>
+  </si>
+  <si>
+    <t>AOE能打哪些弱点搞不清楚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-8，大树中间的小人和血条有遮挡</t>
+  </si>
+  <si>
+    <t>大树好像死亡没播完就消失了</t>
+  </si>
+  <si>
+    <t>十连抽的【跳过】按钮和整个界面感觉不是一风格的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>十连抽如果不跳过无法看到十次的总结果，也不知道当前抽第几次了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋动画太长，尤其是十连抽的时候（如果不是为了体验功能，肯定会跳过），如果跳过直接展示结果又错过了抽到宠物的惊喜感</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋动画脸的部分有穿帮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>十连抽展示结果宠物没有tips？</t>
+  </si>
+  <si>
+    <t>金币对应太阳，钻石对应月亮感觉反了，太阳应该是更好的结果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽到宠物的展示不好看</t>
+  </si>
+  <si>
+    <t>公会许愿扣金币和钻，但没显示我当前有多少</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>许愿后回公会界面，今日贡献不刷新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会频道消息要切分页才能看到，不方便</t>
+  </si>
+  <si>
+    <t>公会任务子任务界面，要完成的目标比奖励还显眼，界面左右两侧也有重复的图标，任务目标文字和图里的还特远</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会任务界面风格感觉和其他公会界面不搭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会基地驻兵不好点，也看不出来能点放怪，和之前的UI设计不一样</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基地列兵看不到自己的派兵？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会界面右侧的按钮和下方的页签进入新界面后都有返回按钮，但两个返回功能不同，经常容易混淆和误操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会招人，搜索其他公会都不能在列表里看到自己公会，很奇怪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击招人的IM进入【其他公会】后，再从公会界面进【其他公会】，还是按之前的搜索显示，没有刷新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会任务全部完成后没有及时刷新出领奖按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会任务奖励展示界面没有显示贡献值相关内容</t>
+  </si>
+  <si>
+    <t>公会商店刷新用钻石，但没显示钻石总数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会有新的申请时没有提示</t>
+  </si>
+  <si>
+    <t>公会boss 点击后提示IM没有配多语言？</t>
+  </si>
+  <si>
+    <t>X被请离公会的提示里面有{0}</t>
+  </si>
+  <si>
+    <t>玩家在公会任务界面被踢出公会，没有关闭公会界面（其他界面也需要试试）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会任务队伍列表界面剩余时间错误</t>
+  </si>
+  <si>
+    <t>扩充小队界面需要消耗钻（立即完成和加队伍），没有显示玩家钻石</t>
+  </si>
+  <si>
+    <t>探险界面宝箱上面额外奖励字有点花，3个筛选条件的话宝箱有些挡字</t>
+  </si>
+  <si>
+    <t>刷新奖励条件要扣钻，但看不到我现在有多少钻</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -864,8 +1400,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -875,6 +1418,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,7 +1509,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -989,13 +1538,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1016,13 +1576,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19537</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>34365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>477608</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>87923</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1042,6 +1602,168 @@
         <a:xfrm>
           <a:off x="1641229" y="6667673"/>
           <a:ext cx="3310687" cy="1851096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2268967</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762001" y="1035326"/>
+          <a:ext cx="2268966" cy="480391"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2437</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1831174</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>5682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="764437" y="15571304"/>
+          <a:ext cx="1828737" cy="1032726"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2178326</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>57628</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="18809804"/>
+          <a:ext cx="2178326" cy="488323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1949284</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762001" y="2305051"/>
+          <a:ext cx="1949283" cy="1095374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1316,43 +2038,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="10.6640625" style="2"/>
     <col min="3" max="6" width="18.6640625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
         <v>2</v>
@@ -1361,17 +2083,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1379,355 +2101,347 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="8" t="s">
+    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="D12" s="2" t="s">
+    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="D13" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="D15" s="9" t="s">
+    <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+      <c r="D16" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="D16" s="2" t="s">
+    <row r="17" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="D17" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="D17" s="9" t="s">
+    <row r="18" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+      <c r="D18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+      <c r="C22" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
-      <c r="C23" s="5" t="s">
+    </row>
+    <row r="24" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+      <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+    <row r="28" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="2" t="s">
+    <row r="29" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="3"/>
+      <c r="C29" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B38" s="3">
+    <row r="38" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B39" s="3">
         <v>1</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B39" s="3">
+    <row r="40" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B40" s="3">
         <v>2</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B40" s="3">
+    <row r="41" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B41" s="3">
         <v>3</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B41" s="3">
+    <row r="42" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B42" s="3">
         <v>4</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B42" s="3">
+    <row r="43" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B43" s="3">
         <v>5</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B43" s="3">
+    <row r="44" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B44" s="3">
         <v>6</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B44" s="3">
+    <row r="45" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B45" s="3">
         <v>7</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B45" s="3">
+    <row r="46" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B46" s="3">
         <v>8</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="5" t="s">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="2" t="s">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C49" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="2" t="s">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C50" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="2" t="s">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C51" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="12" t="s">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C52" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="19"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="11">
+      <c r="D52" s="19"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C53" s="11">
         <v>11001</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D53" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="11">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C54" s="11">
         <v>11002</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D54" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="11">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C55" s="11">
         <v>11003</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D55" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="11">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C56" s="11">
         <v>10016</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D56" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="11">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C57" s="11">
         <v>10017</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D57" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E56" s="17"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="2:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="B58" s="3" t="s">
+      <c r="E57" s="17"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B59" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="2">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="2">
         <v>1</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="2">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="2">
         <v>2</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="2">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="2">
         <v>3</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="2">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="2">
         <v>4</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C64" s="5" t="s">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C65" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="2" t="s">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C66" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="2" t="s">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C67" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C68" s="12" t="s">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C69" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="14"/>
-    </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="16" t="s">
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="14"/>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C70" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F69" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C70" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E70" s="15" t="s">
+      <c r="E70" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F70" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C71" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>61</v>
@@ -1739,9 +2453,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C72" s="11" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>61</v>
@@ -1750,12 +2464,12 @@
         <v>62</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C73" s="11" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>61</v>
@@ -1764,12 +2478,12 @@
         <v>62</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C74" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>61</v>
@@ -1778,12 +2492,12 @@
         <v>62</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C75" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>61</v>
@@ -1792,12 +2506,12 @@
         <v>62</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C76" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>61</v>
@@ -1809,9 +2523,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C77" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>61</v>
@@ -1820,26 +2534,26 @@
         <v>62</v>
       </c>
       <c r="F77" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C78" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F78" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C78" s="11" t="s">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C79" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C79" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>68</v>
@@ -1848,12 +2562,12 @@
         <v>69</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C80" s="11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D80" s="11" t="s">
         <v>68</v>
@@ -1862,12 +2576,12 @@
         <v>69</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C81" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>68</v>
@@ -1876,12 +2590,12 @@
         <v>69</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C82" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>68</v>
@@ -1890,12 +2604,12 @@
         <v>69</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C83" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>68</v>
@@ -1904,12 +2618,12 @@
         <v>69</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C84" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>68</v>
@@ -1918,27 +2632,26 @@
         <v>69</v>
       </c>
       <c r="F84" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C85" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F85" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C85" s="11" t="s">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C86" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F85" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B86" s="3"/>
-      <c r="C86" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>74</v>
@@ -1947,26 +2660,27 @@
         <v>75</v>
       </c>
       <c r="F86" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B87" s="3"/>
+      <c r="C87" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F87" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C87" s="11" t="s">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C88" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F87" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C88" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>73</v>
@@ -1978,23 +2692,23 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C89" s="11" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F89" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C90" s="11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>70</v>
@@ -2003,12 +2717,12 @@
         <v>71</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C91" s="11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>70</v>
@@ -2017,6 +2731,20 @@
         <v>71</v>
       </c>
       <c r="F91" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C92" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F92" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2030,19 +2758,1243 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="72.77734375" style="22" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="23"/>
+    </row>
+    <row r="18" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>11</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>13</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="23"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>8</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>9</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>10</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>11</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>12</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>13</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>14</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>15</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>16</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C75" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>17</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C77" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>18</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>19</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C81" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>20</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C83" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>21</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C85" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>22</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C87" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>23</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C89" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>24</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C91" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B95" s="23"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C100" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>5</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>6</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>7</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>8</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C110" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B112" s="23"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C113" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>3</v>
+      </c>
+      <c r="B117" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C117" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>4</v>
+      </c>
+      <c r="B119" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C119" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B121" s="23"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C122" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C124" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>3</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C126" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>4</v>
+      </c>
+      <c r="B128" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C128" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C130" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>6</v>
+      </c>
+      <c r="B132" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C132" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>7</v>
+      </c>
+      <c r="B134" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C134" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B141" s="23"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C142" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B143" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C143" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B144" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C144" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B145" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C145" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>2</v>
+      </c>
+      <c r="B147" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C147" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C77"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="72.77734375" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>12</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>13</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>14</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>16</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>18</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>19</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>20</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>21</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>22</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>23</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>24</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>25</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>26</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>27</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>28</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>29</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>30</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>31</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>32</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>33</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>34</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C73" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>35</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C75" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>36</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>